--- a/hh.xlsx
+++ b/hh.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ21"/>
+  <dimension ref="A1:BJ27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -608,11 +608,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="A6" t="inlineStr"/>
       <c r="AX6" t="inlineStr">
         <is>
           <t>по ОКПО</t>
@@ -987,94 +983,84 @@
     <row r="20">
       <c r="A20" s="4" t="n"/>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="Q21" t="inlineStr">
-        <is>
-          <t>кг</t>
-        </is>
-      </c>
-      <c r="Y21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AE21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AM21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="AU21" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="BC21" t="inlineStr">
-        <is>
-          <t>0.99</t>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Заведующий:</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Петров П.П.</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Бухгалтер:</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Кузнецов К.К.</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Утверждаю:</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Васильев В.В.</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="39">
-    <mergeCell ref="Y21:AD21"/>
+  <mergeCells count="40">
     <mergeCell ref="AM16:AT20"/>
-    <mergeCell ref="H21:P21"/>
     <mergeCell ref="BC9:BJ9"/>
+    <mergeCell ref="F27:L27"/>
     <mergeCell ref="Q19:X20"/>
+    <mergeCell ref="A10:AU10"/>
     <mergeCell ref="Q16:AD18"/>
     <mergeCell ref="BC6:BJ6"/>
-    <mergeCell ref="Q21:X21"/>
     <mergeCell ref="A9:AF9"/>
     <mergeCell ref="AD14:AK14"/>
     <mergeCell ref="BC11:BJ11"/>
     <mergeCell ref="A11:AF11"/>
     <mergeCell ref="AD13:AK13"/>
     <mergeCell ref="AE16:AL20"/>
-    <mergeCell ref="AE21:AL21"/>
+    <mergeCell ref="N27:AC27"/>
+    <mergeCell ref="A25:E25"/>
     <mergeCell ref="BC7:BJ7"/>
     <mergeCell ref="A19:B20"/>
+    <mergeCell ref="N26:AC26"/>
     <mergeCell ref="C19:G20"/>
     <mergeCell ref="A7:AF7"/>
     <mergeCell ref="A6:AU6"/>
-    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A27:E27"/>
+    <mergeCell ref="F25:L25"/>
     <mergeCell ref="AL13:AS13"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="BC21:BJ21"/>
+    <mergeCell ref="N25:AC25"/>
+    <mergeCell ref="A26:E26"/>
     <mergeCell ref="BC12:BJ12"/>
     <mergeCell ref="BC16:BJ20"/>
     <mergeCell ref="Y19:AD20"/>
-    <mergeCell ref="A8:BB8"/>
     <mergeCell ref="BC5:BJ5"/>
     <mergeCell ref="BC8:BJ8"/>
     <mergeCell ref="AL14:AS14"/>
     <mergeCell ref="A10:BB10"/>
-    <mergeCell ref="AM21:AT21"/>
+    <mergeCell ref="F26:L26"/>
     <mergeCell ref="BC4:BJ4"/>
     <mergeCell ref="H19:P20"/>
-    <mergeCell ref="AU21:BB21"/>
     <mergeCell ref="BC10:BJ10"/>
     <mergeCell ref="A16:P18"/>
     <mergeCell ref="AU16:BB20"/>
+    <mergeCell ref="A8:AU8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/hh.xlsx
+++ b/hh.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BJ27"/>
+  <dimension ref="A1:BJ31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -722,11 +722,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="BC10" t="inlineStr">
         <is>
           <t> </t>
@@ -786,11 +782,7 @@
           <t>Вид операции</t>
         </is>
       </c>
-      <c r="BC12" t="inlineStr">
-        <is>
-          <t> </t>
-        </is>
-      </c>
+      <c r="BC12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="AD13" t="inlineStr">
@@ -812,12 +804,12 @@
       </c>
       <c r="AD14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>0000-000519</t>
         </is>
       </c>
       <c r="AL14" t="inlineStr">
         <is>
-          <t> </t>
+          <t>23.10.2020</t>
         </is>
       </c>
     </row>
@@ -983,83 +975,201 @@
     <row r="20">
       <c r="A20" s="4" t="n"/>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Заведующий:</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Петров П.П.</t>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Картофель</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>00-00000171</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>г</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="AE21" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AM21" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="AU21" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="BC21" t="inlineStr">
+        <is>
+          <t>90.00</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Бухгалтер:</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Кузнецов К.К.</t>
+          <t>Заведующий:</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr"/>
+      <c r="AM26" t="inlineStr">
+        <is>
+          <t>Общая стоимость сырьевого набора, руб. коп:</t>
+        </is>
+      </c>
+      <c r="BD26" t="inlineStr">
+        <is>
+          <t>9000,00</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Утверждаю:</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Васильев В.В.</t>
+          <t> </t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>(подпись)</t>
+        </is>
+      </c>
+      <c r="AM27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Выход в готовом виде: </t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Бухгалтер:</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr"/>
+      <c r="AM28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Продажная цена для Буфета: </t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>(подпись)</t>
+        </is>
+      </c>
+      <c r="AM29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Сумма наценки %: </t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Утверждено:</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="AM30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Процент наценки %: </t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t> </t>
+        </is>
+      </c>
+      <c r="M31" s="2" t="inlineStr">
+        <is>
+          <t>(подпись)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="57">
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="Y21:AD21"/>
+    <mergeCell ref="AM27:BC27"/>
     <mergeCell ref="AM16:AT20"/>
+    <mergeCell ref="H21:P21"/>
     <mergeCell ref="BC9:BJ9"/>
-    <mergeCell ref="F27:L27"/>
+    <mergeCell ref="F30:AC30"/>
+    <mergeCell ref="AM26:BC26"/>
     <mergeCell ref="Q19:X20"/>
     <mergeCell ref="A10:AU10"/>
     <mergeCell ref="Q16:AD18"/>
     <mergeCell ref="BC6:BJ6"/>
+    <mergeCell ref="Q21:X21"/>
     <mergeCell ref="A9:AF9"/>
+    <mergeCell ref="A27:L27"/>
     <mergeCell ref="AD14:AK14"/>
     <mergeCell ref="BC11:BJ11"/>
+    <mergeCell ref="AM29:BC29"/>
     <mergeCell ref="A11:AF11"/>
+    <mergeCell ref="F26:AC26"/>
+    <mergeCell ref="AM28:BC28"/>
     <mergeCell ref="AD13:AK13"/>
     <mergeCell ref="AE16:AL20"/>
-    <mergeCell ref="N27:AC27"/>
-    <mergeCell ref="A25:E25"/>
+    <mergeCell ref="BD26:BJ26"/>
+    <mergeCell ref="AE21:AL21"/>
     <mergeCell ref="BC7:BJ7"/>
     <mergeCell ref="A19:B20"/>
-    <mergeCell ref="N26:AC26"/>
+    <mergeCell ref="F28:AC28"/>
     <mergeCell ref="C19:G20"/>
     <mergeCell ref="A7:AF7"/>
     <mergeCell ref="A6:AU6"/>
-    <mergeCell ref="A27:E27"/>
-    <mergeCell ref="F25:L25"/>
+    <mergeCell ref="A21:B21"/>
     <mergeCell ref="AL13:AS13"/>
-    <mergeCell ref="N25:AC25"/>
+    <mergeCell ref="C21:G21"/>
     <mergeCell ref="A26:E26"/>
+    <mergeCell ref="A29:L29"/>
+    <mergeCell ref="M31:AC31"/>
+    <mergeCell ref="BC21:BJ21"/>
     <mergeCell ref="BC12:BJ12"/>
     <mergeCell ref="BC16:BJ20"/>
+    <mergeCell ref="A31:L31"/>
     <mergeCell ref="Y19:AD20"/>
+    <mergeCell ref="AM30:BC30"/>
     <mergeCell ref="BC5:BJ5"/>
     <mergeCell ref="BC8:BJ8"/>
     <mergeCell ref="AL14:AS14"/>
-    <mergeCell ref="A10:BB10"/>
-    <mergeCell ref="F26:L26"/>
+    <mergeCell ref="M27:AC27"/>
+    <mergeCell ref="A28:E28"/>
+    <mergeCell ref="AM21:AT21"/>
     <mergeCell ref="BC4:BJ4"/>
     <mergeCell ref="H19:P20"/>
+    <mergeCell ref="AU21:BB21"/>
     <mergeCell ref="BC10:BJ10"/>
     <mergeCell ref="A16:P18"/>
     <mergeCell ref="AU16:BB20"/>
+    <mergeCell ref="M29:AC29"/>
     <mergeCell ref="A8:AU8"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
